--- a/2018 Voting Data.xlsx
+++ b/2018 Voting Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbroo\OneDrive\Documents\Introduction to Data Science\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbroo\OneDrive\Documents\Introduction to Data Science\Project\Team-F\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{9D767F76-9967-4148-B741-7A932D7C1F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3DCA2DD6-B6B9-493B-A087-CC83C758D99D}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{9D767F76-9967-4148-B741-7A932D7C1F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{01703D11-4923-4097-9D03-97B5D768E204}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B2E83E0-51E0-4CD1-A420-9B6DE8BE6DE1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Democratic advantage</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>DC</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -586,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE738AAE-39FF-4BED-B3E6-0864997293CF}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1626,21 +1623,6 @@
       <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
